--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3246840.999272378</v>
+        <v>3351074.707665825</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8073045.267019445</v>
+        <v>8081958.158271052</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>262.2618143196431</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>9.454405441115297</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>58.17488551798973</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>134.9249912545475</v>
       </c>
       <c r="W5" t="n">
-        <v>253.8492008255564</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>52.23490948286015</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>149.3915118801852</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>136.0870494265619</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>15.03347606442292</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,19 +1296,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1342,22 +1344,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>182.3373738065492</v>
       </c>
       <c r="Y10" t="n">
-        <v>143.0812453977549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187855</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1531,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>72.26558381699921</v>
+        <v>2.268486125805721</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,19 +1821,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>278.7019488598311</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>102.5041944721335</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -2002,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>123.9815576456779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>13.72582864853737</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>139.244080764314</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>200.0899877799056</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>133.1319933510085</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>24.83266606353076</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,10 +2560,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>5.623597659135302</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>5.421623586788709</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>93.40444476188276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>33.82351723687706</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>91.87132188693977</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>148.1185786361436</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3424,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0.6324680438225141</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>22.10695458833897</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3709,16 +3711,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>140.3829797864967</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>99.17988875728668</v>
       </c>
     </row>
     <row r="41">
@@ -3791,10 +3793,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>80.25286948725234</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3946,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>5.623597659135302</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4150,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>47.08900005058229</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1901.535346136984</v>
+        <v>505.1927996570369</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176918</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176918</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2678.274518176918</v>
+        <v>1281.93197169697</v>
       </c>
       <c r="Y2" t="n">
-        <v>2288.135186201106</v>
+        <v>891.7926397211587</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>507.2413987429757</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>801.9449557744474</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>682.7064461033928</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>682.7064461033928</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>532.589806691057</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>864.3549109336325</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>2729.809727313141</v>
       </c>
       <c r="W5" t="n">
-        <v>2421.86118400969</v>
+        <v>2377.041072043026</v>
       </c>
       <c r="X5" t="n">
-        <v>2048.39542574861</v>
+        <v>2377.041072043026</v>
       </c>
       <c r="Y5" t="n">
-        <v>2048.39542574861</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8175152271522</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8175152271522</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E7" t="n">
         <v>310.0549803959803</v>
@@ -4720,22 +4722,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1776.394031037801</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1554.627415607327</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368017</v>
+        <v>1554.627415607327</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621301</v>
+        <v>1299.94292740144</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251695</v>
+        <v>1010.525757364479</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271522</v>
+        <v>1010.525757364479</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.8175152271522</v>
+        <v>789.7331782209488</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3077.853487048829</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2824.323010322666</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2824.323010322666</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W8" t="n">
-        <v>2824.323010322666</v>
+        <v>2740.621599436322</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>2367.155841175242</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1977.016509199431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>479.6639240396553</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1645.778206672847</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>1417.78865577483</v>
+        <v>661.312388869895</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>661.312388869895</v>
       </c>
     </row>
     <row r="11">
@@ -5015,58 +5017,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5078,13 +5080,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>982.2858920990371</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5318,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1762.98966419767</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1508.305175991783</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.305175991783</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>881.3796452313796</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5713,10 +5715,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5740,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5847,10 +5849,10 @@
         <v>1918.296605585279</v>
       </c>
       <c r="P21" t="n">
-        <v>2341.919755080347</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>532.5350811160199</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="C22" t="n">
-        <v>532.5350811160199</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="D22" t="n">
-        <v>382.4184417036842</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="Y22" t="n">
-        <v>714.1835459462596</v>
+        <v>3167.361685286662</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>555.8158034133954</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C25" t="n">
-        <v>555.8158034133954</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2421.879582505987</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2239.024748160891</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2019.423283183833</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1730.34805652803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1475.663568322143</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1186.246398285183</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>958.2568473871653</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>737.4642682436352</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6312,16 +6314,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.9786782557277</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>643.582908441376</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>495.6698148589829</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>348.7798673610725</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>181.5837680759525</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6412,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.419722229497</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.6271430859674</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="29">
@@ -6452,22 +6454,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6479,31 +6481,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1399.536196722681</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,22 +6782,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2297.348357685166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2077.746892708107</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1788.671666052305</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V34" t="n">
-        <v>1533.987177846418</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W34" t="n">
-        <v>1244.570007809457</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X34" t="n">
-        <v>1016.58045691144</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y34" t="n">
-        <v>1016.58045691144</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>847.644273983533</v>
+        <v>3195.262992109387</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>3026.32680918148</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>2876.210169769145</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2424.632826420322</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2241.777992075226</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T37" t="n">
-        <v>2022.176527098168</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U37" t="n">
-        <v>2022.176527098168</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V37" t="n">
-        <v>1767.492038892281</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="W37" t="n">
-        <v>1478.07486885532</v>
+        <v>3825.693586981174</v>
       </c>
       <c r="X37" t="n">
-        <v>1250.085317957303</v>
+        <v>3597.704036083157</v>
       </c>
       <c r="Y37" t="n">
-        <v>1029.292738813773</v>
+        <v>3376.911456939627</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,25 +7168,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7257,22 +7259,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081858</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153951</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741615</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159222</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661312</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4404.185983673936</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4262.384993990606</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>4262.384993990606</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3972.967823953645</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3744.978273055628</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.185693912098</v>
+        <v>816.1129388984</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,22 +7438,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578601</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>1138.603793935964</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,22 +7675,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2445.740023695907</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.537229081858</v>
+        <v>3079.453861511889</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153951</v>
+        <v>3079.453861511889</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741615</v>
+        <v>2929.337222099554</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159222</v>
+        <v>2781.424128517161</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661312</v>
+        <v>2634.53418101925</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376192</v>
+        <v>2467.33808173413</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.77343521839</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S46" t="n">
-        <v>4623.787448650995</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T46" t="n">
-        <v>4623.787448650995</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U46" t="n">
-        <v>4517.069482196493</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V46" t="n">
-        <v>4262.384993990606</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="W46" t="n">
-        <v>3972.967823953645</v>
+        <v>3709.884456383676</v>
       </c>
       <c r="X46" t="n">
-        <v>3744.978273055628</v>
+        <v>3481.894905485659</v>
       </c>
       <c r="Y46" t="n">
-        <v>3524.185693912098</v>
+        <v>3261.102326342129</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23419,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>213.9188905722449</v>
+        <v>283.9159882634384</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>7.482525529413067</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>184.0188038644575</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>24.63391537253442</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>40.58789941762333</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.49466557218918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.54258064659092</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>211.9838267404996</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>252.6994810997139</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>75.37549921168807</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>32.90770736550095</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.8014946027467</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.26829212178271</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>145.8014946027474</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>86.99395161137549</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>220.0860577299019</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>93.2057127956416</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>707034.6638598258</v>
+        <v>715947.555111432</v>
       </c>
     </row>
     <row r="3">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>695223.7692116901</v>
+        <v>695223.7692116902</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>695223.7692116901</v>
+        <v>695223.7692116902</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>695223.7692116901</v>
+        <v>695223.7692116902</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>695223.7692116902</v>
+        <v>695223.7692116901</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778553</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="H2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210049</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="I2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="L2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210055</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>137930.4104072219</v>
+      </c>
+      <c r="C4" t="n">
+        <v>89134.1790931202</v>
+      </c>
+      <c r="D4" t="n">
         <v>89134.17909312012</v>
       </c>
-      <c r="C4" t="n">
-        <v>89134.17909312012</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89134.17909312018</v>
-      </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768947</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768947</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768963</v>
+        <v>9947.144321768919</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768927</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
+        <v>9947.144321768958</v>
+      </c>
+      <c r="K4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="K4" t="n">
-        <v>9947.144321768959</v>
-      </c>
       <c r="L4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.14432176895</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-786875.2725042505</v>
+        <v>-606682.3735451319</v>
       </c>
       <c r="C6" t="n">
-        <v>541869.473223342</v>
+        <v>338430.7316112359</v>
       </c>
       <c r="D6" t="n">
-        <v>541869.473223342</v>
+        <v>541869.4732233419</v>
       </c>
       <c r="E6" t="n">
-        <v>289949.803767974</v>
+        <v>289949.8037679739</v>
       </c>
       <c r="F6" t="n">
-        <v>615362.2655753291</v>
+        <v>615362.2655753295</v>
       </c>
       <c r="G6" t="n">
-        <v>615362.2655753291</v>
+        <v>615362.2655753295</v>
       </c>
       <c r="H6" t="n">
+        <v>615362.2655753293</v>
+      </c>
+      <c r="I6" t="n">
+        <v>615362.2655753288</v>
+      </c>
+      <c r="J6" t="n">
+        <v>447757.0877653466</v>
+      </c>
+      <c r="K6" t="n">
+        <v>566252.1728692751</v>
+      </c>
+      <c r="L6" t="n">
         <v>615362.2655753295</v>
       </c>
-      <c r="I6" t="n">
-        <v>615362.2655753292</v>
-      </c>
-      <c r="J6" t="n">
-        <v>397831.0631780516</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>530307.2376398176</v>
+      </c>
+      <c r="N6" t="n">
+        <v>615362.2655753294</v>
+      </c>
+      <c r="O6" t="n">
         <v>615362.2655753293</v>
       </c>
-      <c r="L6" t="n">
-        <v>615362.2655753292</v>
-      </c>
-      <c r="M6" t="n">
-        <v>530307.2376398175</v>
-      </c>
-      <c r="N6" t="n">
-        <v>615362.2655753293</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>615362.2655753294</v>
-      </c>
-      <c r="P6" t="n">
-        <v>615362.2655753295</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.401455402293</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>103.0110774513645</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>360.2766952373537</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>88.25907712857943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>192.8272672155874</v>
       </c>
       <c r="W5" t="n">
-        <v>95.39176789185666</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>96.3805635353522</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>40.37751345125673</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>67.83092071305828</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>334.2074926529901</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>43.372281582488</v>
       </c>
       <c r="Y10" t="n">
-        <v>75.50340795433993</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28573,13 +28575,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28615,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28624,13 +28626,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28861,13 +28863,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29281,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>363.5371514786841</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31862,16 +31864,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149951</v>
       </c>
       <c r="N15" t="n">
-        <v>265.5442652399247</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32324,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>235.5705495535876</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32338,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32485,7 +32487,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q21" t="n">
-        <v>316.2462973459355</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,22 +32785,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>150.2061940096332</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,7 +32809,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33032,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,28 +33259,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>344.6306853939244</v>
       </c>
       <c r="L30" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33500,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,10 +33517,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>340.7767527663067</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,16 +33736,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33758,7 +33760,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33977,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,25 +34207,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>237.3557891543625</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34448,25 +34450,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>567.7870775946151</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>220.9409070342396</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>508.1286233929767</v>
       </c>
       <c r="N15" t="n">
-        <v>134.2025531565914</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35884,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>92.97430510914316</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35986,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36215,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q21" t="n">
-        <v>176.264523259914</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,7 +36457,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36680,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>206.7892464195654</v>
       </c>
       <c r="L30" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,10 +37165,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37406,7 +37408,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>94.75954470991805</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3351074.707665825</v>
+        <v>3347020.581906444</v>
       </c>
     </row>
     <row r="7">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>40.16874734898876</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -718,13 +718,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>9.454405441115297</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>58.17488551798973</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>30.95313829082809</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>66.76195975981683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -955,7 +955,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>134.9249912545475</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>149.3915118801852</v>
+        <v>110.6136247060144</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>15.03347606442292</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>201.66221878632</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>63.13625055643882</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1341,25 +1341,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>182.3373738065492</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187855</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.632620083627427</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>2.268486125805721</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1660,13 +1660,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>102.5041944721335</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>13.72582864853737</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="21">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>139.244080764314</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>133.1319933510085</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>117.4665281367399</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>5.623597659135302</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>33.82351723687706</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>91.87132188693977</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6324680438225141</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>99.17988875728668</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>5.623597659135302</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>47.08900005058229</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>505.1927996570369</v>
+        <v>909.233203697441</v>
       </c>
       <c r="C2" t="n">
-        <v>136.2302827166252</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="D2" t="n">
-        <v>136.2302827166252</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E2" t="n">
-        <v>136.2302827166252</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,55 +4327,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2521.76483612845</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2313.019194734275</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2059.438133998454</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2059.438133998454</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>2059.438133998454</v>
       </c>
       <c r="X2" t="n">
-        <v>1281.93197169697</v>
+        <v>1685.972375737374</v>
       </c>
       <c r="Y2" t="n">
-        <v>891.7926397211587</v>
+        <v>1295.833043761563</v>
       </c>
     </row>
     <row r="3">
@@ -4406,19 +4406,19 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429757</v>
+        <v>507.2413987429764</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744474</v>
+        <v>801.9449557744481</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
         <v>1552.492103330613</v>
@@ -4427,13 +4427,13 @@
         <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>682.7064461033928</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>682.7064461033928</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>532.589806691057</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4521,19 +4521,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1605.180323821136</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1350.495835615249</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.34446183165</v>
+        <v>1061.078665578288</v>
       </c>
       <c r="X4" t="n">
-        <v>864.3549109336325</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="Y4" t="n">
-        <v>864.3549109336325</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,10 +4564,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2729.809727313141</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2377.041072043026</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2377.041072043026</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y5" t="n">
-        <v>1986.901740067214</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>608.0847133907091</v>
+        <v>482.8906159540807</v>
       </c>
       <c r="C7" t="n">
-        <v>608.0847133907091</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>163.837793613838</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1776.394031037801</v>
+        <v>1725.733156799542</v>
       </c>
       <c r="T7" t="n">
-        <v>1554.627415607327</v>
+        <v>1725.733156799542</v>
       </c>
       <c r="U7" t="n">
-        <v>1554.627415607327</v>
+        <v>1436.630289925185</v>
       </c>
       <c r="V7" t="n">
-        <v>1299.94292740144</v>
+        <v>1181.945801719298</v>
       </c>
       <c r="W7" t="n">
-        <v>1010.525757364479</v>
+        <v>892.5286316823377</v>
       </c>
       <c r="X7" t="n">
-        <v>1010.525757364479</v>
+        <v>664.5390807843204</v>
       </c>
       <c r="Y7" t="n">
-        <v>789.7331782209488</v>
+        <v>664.5390807843204</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.416669135309</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2740.621599436322</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.155841175242</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.016509199431</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>479.6639240396553</v>
+        <v>373.8289708570296</v>
       </c>
       <c r="C10" t="n">
-        <v>310.7277411117484</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X10" t="n">
-        <v>661.312388869895</v>
+        <v>776.2700148307995</v>
       </c>
       <c r="Y10" t="n">
-        <v>661.312388869895</v>
+        <v>555.4774356872693</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5071,22 +5071,22 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5120,19 +5120,19 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.6374272687974</v>
+        <v>870.3164745246301</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408905</v>
+        <v>701.3802915967232</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>551.2636521843874</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.169680383432</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.485192177545</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1431.068022140585</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X13" t="n">
-        <v>1203.078471242567</v>
+        <v>1272.7575184984</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.2858920990371</v>
+        <v>1051.96493935487</v>
       </c>
     </row>
     <row r="14">
@@ -5269,43 +5269,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
@@ -5366,13 +5366,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>699.7311804011399</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>699.7311804011399</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
         <v>402.7245934908938</v>
@@ -5430,10 +5430,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1330.161775272927</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1102.17222437491</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>881.3796452313796</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516142</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.533952578166</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1366.386875345992</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O21" t="n">
-        <v>1918.296605585279</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3026.711098656041</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>3026.711098656041</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>2876.594459243706</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>3388.154264430192</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>3167.361685286662</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192511</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>916.2946447138411</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>766.1780053015053</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
         <v>631.7012443408906</v>
@@ -6144,55 +6144,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
         <v>2129.438138565707</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>962.6357307816187</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>793.6995478537118</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>643.582908441376</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>495.6698148589829</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>348.7798673610725</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>181.5837680759525</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6426,10 +6426,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>943.510265746755</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1540.888753373307</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6660,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1399.536196722681</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1171.546645824663</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.7540666811333</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,10 +6694,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1022.530292372932</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2197.062545487567</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1942.37805728168</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1652.96088724472</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1424.971336346702</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>1204.178757203172</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3195.262992109387</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3026.32680918148</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2876.210169769145</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>4115.110757018135</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3825.693586981174</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3597.704036083157</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3376.911456939627</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,19 +7250,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
         <v>2001.151557821488</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>634.4644740681603</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>465.5282911402533</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7377,7 +7377,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>816.1129388984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,16 +7408,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7429,7 +7429,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,19 +7487,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1138.603793935964</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3079.453861511889</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>3079.453861511889</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>2929.337222099554</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>2781.424128517161</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>2634.53418101925</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2467.33808173413</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>3999.301626420637</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>3999.301626420637</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>3709.884456383676</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>3481.894905485659</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>3261.102326342129</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241559</v>
+        <v>211.0329012241567</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>144.8013425629418</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>283.9159882634384</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>184.0188038644575</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>211.9838267404998</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>40.58789941762333</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>13.30196929556064</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>134.6711151870881</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.6711151870886</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>252.6994810997139</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>75.37549921168807</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>145.8014946027467</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>119.4047645948081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>220.0860577299019</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>93.2057127956416</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>695223.7692116902</v>
+        <v>695223.7692116901</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>695223.7692116902</v>
+        <v>695223.7692116901</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>695223.7692116902</v>
+        <v>695223.7692116901</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>695223.7692116902</v>
+        <v>695223.7692116901</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210049</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210055</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.939721005</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.939721005</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099823</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605433</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312023</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312012</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768947</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768947</v>
+        <v>9947.144321768841</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768919</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768927</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768958</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768939</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-606682.3735451319</v>
+        <v>-606682.3735451315</v>
       </c>
       <c r="C6" t="n">
-        <v>338430.7316112359</v>
+        <v>338430.7316112362</v>
       </c>
       <c r="D6" t="n">
-        <v>541869.4732233419</v>
+        <v>541869.4732233416</v>
       </c>
       <c r="E6" t="n">
-        <v>289949.8037679739</v>
+        <v>289602.424513617</v>
       </c>
       <c r="F6" t="n">
-        <v>615362.2655753295</v>
+        <v>615014.8863209723</v>
       </c>
       <c r="G6" t="n">
-        <v>615362.2655753295</v>
+        <v>615014.8863209721</v>
       </c>
       <c r="H6" t="n">
-        <v>615362.2655753293</v>
+        <v>615014.8863209721</v>
       </c>
       <c r="I6" t="n">
-        <v>615362.2655753288</v>
+        <v>615014.8863209721</v>
       </c>
       <c r="J6" t="n">
-        <v>447757.0877653466</v>
+        <v>447409.7085109901</v>
       </c>
       <c r="K6" t="n">
-        <v>566252.1728692751</v>
+        <v>565904.7936149179</v>
       </c>
       <c r="L6" t="n">
-        <v>615362.2655753295</v>
+        <v>615014.8863209723</v>
       </c>
       <c r="M6" t="n">
-        <v>530307.2376398176</v>
+        <v>529959.8583854607</v>
       </c>
       <c r="N6" t="n">
-        <v>615362.2655753294</v>
+        <v>615014.8863209725</v>
       </c>
       <c r="O6" t="n">
-        <v>615362.2655753293</v>
+        <v>615014.8863209721</v>
       </c>
       <c r="P6" t="n">
-        <v>615362.2655753294</v>
+        <v>615014.8863209721</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26801,16 +26801,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>83.28346804980561</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>360.2766952373537</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>88.25907712857943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>255.2740158303725</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>287.9210818608661</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>192.8272672155874</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,7 +27791,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>40.37751345125673</v>
+        <v>79.15540062542749</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>334.2074926529901</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>168.0688818921491</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>104.110570542189</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,13 +28022,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>43.372281582488</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28575,13 +28575,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28626,13 +28626,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28863,13 +28863,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>-5.871232860595138e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>549.9198891312099</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32086,16 +32086,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>650.2626573149951</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>608.2694430035896</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>235.5705495535876</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>539.5330155967683</v>
+        <v>436.0678650906011</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>150.2061940096332</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,10 +33505,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33520,7 +33520,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>340.7767527663067</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,19 +33733,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M36" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33754,10 +33754,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,13 +33979,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34216,13 +34216,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>232.1537035940586</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34444,31 +34444,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O45" t="n">
-        <v>567.7870775946151</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676407</v>
+        <v>397.6203974676415</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>568.1422977634695</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>407.3236446867654</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>508.1286233929767</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>469.7150632237154</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>92.97430510914316</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>405.558608182438</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>18.86448192629984</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,10 +37153,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M36" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37402,10 +37402,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>90.01966967204032</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O45" t="n">
-        <v>425.1908331501707</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3347020.581906444</v>
+        <v>3348781.112209231</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>394.6060839388453</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>40.16874734898876</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -718,10 +718,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542836</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>30.95313829082809</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>57.29212650174169</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>66.76195975981683</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -955,7 +955,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>110.6136247060144</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>110.7115619691731</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>201.66221878632</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145775</v>
       </c>
     </row>
     <row r="9">
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>63.13625055643882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>138.5234422138599</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>1.632620083627427</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>2.445727774094098</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>123.797182079703</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>211.8986685707647</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>113.6427030833208</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>117.4665281367399</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>87.2090151050697</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>28.75188085812011</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U34" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>83.06560892428168</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>3.006892987834117</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>909.233203697441</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="C2" t="n">
-        <v>540.2706867570294</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="D2" t="n">
-        <v>540.2706867570294</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,55 +4327,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2521.76483612845</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2313.019194734275</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2059.438133998454</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2059.438133998454</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2059.438133998454</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1685.972375737374</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1295.833043761563</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="3">
@@ -4391,49 +4391,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429764</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744481</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733668</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4521,19 +4521,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1605.180323821136</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1350.495835615249</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1061.078665578288</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X4" t="n">
-        <v>833.0891146802707</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y4" t="n">
-        <v>833.0891146802707</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1685.375546116517</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1685.375546116517</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4603,16 +4603,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.975386180638</v>
+        <v>2403.038273524209</v>
       </c>
     </row>
     <row r="6">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>482.8906159540807</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C7" t="n">
-        <v>313.9544330261738</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>163.837793613838</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1725.733156799542</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1725.733156799542</v>
+        <v>1815.46468751357</v>
       </c>
       <c r="U7" t="n">
-        <v>1436.630289925185</v>
+        <v>1526.361820639214</v>
       </c>
       <c r="V7" t="n">
-        <v>1181.945801719298</v>
+        <v>1271.677332433327</v>
       </c>
       <c r="W7" t="n">
-        <v>892.5286316823377</v>
+        <v>982.2601623963666</v>
       </c>
       <c r="X7" t="n">
-        <v>664.5390807843204</v>
+        <v>754.2706114983492</v>
       </c>
       <c r="Y7" t="n">
-        <v>664.5390807843204</v>
+        <v>533.4780323548191</v>
       </c>
     </row>
     <row r="8">
@@ -4807,13 +4807,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4831,22 +4831,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y8" t="n">
         <v>2731.767278738087</v>
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.8289708570296</v>
+        <v>917.616325937273</v>
       </c>
       <c r="C10" t="n">
-        <v>310.0549803959803</v>
+        <v>748.6801430093661</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>598.5635035970304</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>450.6504100146373</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>303.7604625167269</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4995,19 +4995,19 @@
         <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>1548.04692080906</v>
       </c>
       <c r="X10" t="n">
-        <v>776.2700148307995</v>
+        <v>1320.057369911043</v>
       </c>
       <c r="Y10" t="n">
-        <v>555.4774356872693</v>
+        <v>1099.264790767513</v>
       </c>
     </row>
     <row r="11">
@@ -5020,10 +5020,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5032,58 +5032,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362689</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>870.3164745246301</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>701.3802915967232</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>551.2636521843874</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2194.592113392523</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1905.516886736721</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1650.832398530834</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.747069396417</v>
+        <v>1361.415228493873</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.7575184984</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.96493935487</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,22 +5290,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,40 +5764,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.07903472198</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192511</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6028,10 +6028,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1569.732795130727</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.315625093766</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,7 +6253,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6502,13 +6502,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6548,22 +6548,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6600,22 +6600,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6788,10 +6788,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7022,13 +7022,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7259,13 +7259,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7314,10 +7314,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
         <v>261.0127623330919</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,16 +7408,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7426,10 +7426,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7736,7 +7736,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241567</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>54.95314511566465</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>144.8013425629418</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>214.9597225531942</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.22910392194156</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>40.23897475306327</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>134.6711151870881</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>80.03780599355814</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U34" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>695223.7692116901</v>
+        <v>695223.7692116902</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778555</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="F2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.939721005</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210054</v>
@@ -26343,19 +26343,19 @@
         <v>726431.9397210052</v>
       </c>
       <c r="L2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="O2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.939721005</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099823</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605433</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768841</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768936</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768939</v>
+        <v>9947.144321768938</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-606682.3735451315</v>
+        <v>-606682.3735451318</v>
       </c>
       <c r="C6" t="n">
         <v>338430.7316112362</v>
       </c>
       <c r="D6" t="n">
-        <v>541869.4732233416</v>
+        <v>541869.4732233417</v>
       </c>
       <c r="E6" t="n">
-        <v>289602.424513617</v>
+        <v>289915.0658425387</v>
       </c>
       <c r="F6" t="n">
-        <v>615014.8863209723</v>
+        <v>615327.5276498939</v>
       </c>
       <c r="G6" t="n">
-        <v>615014.8863209721</v>
+        <v>615327.5276498937</v>
       </c>
       <c r="H6" t="n">
-        <v>615014.8863209721</v>
+        <v>615327.5276498935</v>
       </c>
       <c r="I6" t="n">
-        <v>615014.8863209721</v>
+        <v>615327.5276498937</v>
       </c>
       <c r="J6" t="n">
-        <v>447409.7085109901</v>
+        <v>447722.3498399113</v>
       </c>
       <c r="K6" t="n">
-        <v>565904.7936149179</v>
+        <v>566217.4349438391</v>
       </c>
       <c r="L6" t="n">
-        <v>615014.8863209723</v>
+        <v>615327.5276498938</v>
       </c>
       <c r="M6" t="n">
-        <v>529959.8583854607</v>
+        <v>530272.4997143819</v>
       </c>
       <c r="N6" t="n">
-        <v>615014.8863209725</v>
+        <v>615327.5276498935</v>
       </c>
       <c r="O6" t="n">
-        <v>615014.8863209721</v>
+        <v>615327.527649894</v>
       </c>
       <c r="P6" t="n">
-        <v>615014.8863209721</v>
+        <v>615327.5276498938</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
@@ -26798,19 +26798,19 @@
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>12.26996180286613</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>83.28346804980561</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>115.3258519193758</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27593,10 +27593,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>255.2740158303725</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>325.4417151617389</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>287.9210818608661</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>79.15540062542749</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>108.8373873069961</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>168.0688818921491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>111.4435131414761</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>104.110570542189</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>27.50236604516832</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-5.871232860595138e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29523,58 +29523,58 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>9.003997547551989e-13</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>608.2694430035896</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>436.0678650906011</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33268,25 +33268,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34219,10 +34219,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34456,10 +34456,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676415</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>304.632674239197</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>469.7150632237154</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>302.0934576762708</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36676,22 +36676,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38104,10 +38104,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
